--- a/product-definitions/spreadsheet/soil.xlsx
+++ b/product-definitions/spreadsheet/soil.xlsx
@@ -14,12 +14,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -29,12 +41,6 @@
     <t>Proposed name</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>example value</t>
   </si>
   <si>
@@ -50,9 +56,6 @@
     <t>float32</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>dimension</t>
   </si>
   <si>
@@ -72,9 +75,6 @@
   </si>
   <si>
     <t>_FillValue</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;</t>
   </si>
   <si>
     <t>valid_min</t>
@@ -219,23 +219,23 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
@@ -291,47 +291,47 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.57"/>
+    <col customWidth="1" min="1" max="1" width="34.0"/>
     <col customWidth="1" min="2" max="2" width="17.86"/>
     <col customWidth="1" min="3" max="3" width="26.71"/>
     <col customWidth="1" min="4" max="5" width="17.86"/>
@@ -1357,73 +1357,73 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="8">
         <v>-1.0E20</v>
@@ -1469,23 +1469,23 @@
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="B17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8">
         <v>-1.0E20</v>
@@ -1555,23 +1555,23 @@
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="B29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -1579,15 +1579,15 @@
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="B31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="B32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32" s="8">
         <v>-1.0E20</v>
@@ -1641,37 +1641,37 @@
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="B40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="B43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
         <v>36</v>
@@ -1701,37 +1701,37 @@
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="B49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="7">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="B52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
@@ -1761,37 +1761,37 @@
     </row>
     <row r="57" ht="12.0" customHeight="1">
       <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="58" ht="12.0" customHeight="1">
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="7">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="B61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
         <v>45</v>
@@ -1828,14 +1828,14 @@
     <row r="76" ht="12.0" customHeight="1"/>
     <row r="77" ht="12.0" customHeight="1"/>
     <row r="78" ht="12.0" customHeight="1">
-      <c r="C78" s="7"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" ht="12.0" customHeight="1"/>
     <row r="80" ht="12.0" customHeight="1">
-      <c r="C80" s="7"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" ht="12.0" customHeight="1">
-      <c r="C81" s="7"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" ht="12.0" customHeight="1"/>
     <row r="83" ht="12.0" customHeight="1"/>
@@ -1843,11 +1843,11 @@
     <row r="85" ht="12.0" customHeight="1"/>
     <row r="86" ht="12.0" customHeight="1"/>
     <row r="87" ht="12.0" customHeight="1">
-      <c r="C87" s="7"/>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" ht="12.0" customHeight="1"/>
     <row r="89" ht="12.0" customHeight="1">
-      <c r="C89" s="7"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" ht="12.0" customHeight="1"/>
     <row r="91" ht="12.0" customHeight="1"/>
